--- a/Tester Results/TEST_GLM.xlsx
+++ b/Tester Results/TEST_GLM.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6.418088239345915e-06</v>
+        <v>8.903939292390426e-15</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.880205226067079</v>
+        <v>0.8770672689597531</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.405870580528224</v>
+        <v>0.4821106777989222</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.4573472923633559</v>
+        <v>0.3917216472188526</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8188853485206447</v>
+        <v>0.9245286878763932</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.884361638952859</v>
+        <v>0.8387633316278917</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.6226973237769943</v>
+        <v>0.6712692810110672</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.09889217919113852</v>
+        <v>0.08539621490894032</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1025479490842246</v>
+        <v>0.08589747403552649</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1354463481945954</v>
+        <v>0.1354605806541475</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.09572568603715417</v>
+        <v>0.1042754438970071</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1078941279648439</v>
+        <v>0.1660910053643732</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.09023635719365274</v>
+        <v>0.1072282228019529</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.09136545183045294</v>
+        <v>0.1308820165495146</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1943729554908239</v>
+        <v>0.2067485153718752</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.07967533429578201</v>
+        <v>0.1341457576953057</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.07147525241052061</v>
+        <v>0.1113037170933485</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0008334895511477013</v>
+        <v>0.001783251267607191</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.247356848178581e-54</v>
+        <v>8.270574016290035e-49</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.182816288055107e-21</v>
+        <v>5.537709910156304e-25</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5.227890040974694e-16</v>
+        <v>2.524652071849339e-11</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.371159283269439e-06</v>
+        <v>2.004935471430351e-13</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.8942425193305444</v>
+        <v>0.9044543795128401</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.5196348501662622</v>
+        <v>0.6857116125642075</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.5657443606597998</v>
+        <v>0.5032834514357978</v>
       </c>
     </row>
     <row r="27">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.8467161489330614</v>
+        <v>0.800260162688039</v>
       </c>
     </row>
     <row r="28">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.9940562824527893</v>
+        <v>0.9688444758471388</v>
       </c>
     </row>
     <row r="29">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.6682519357153121</v>
+        <v>0.7652990112723463</v>
       </c>
     </row>
     <row r="30">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.1044378991569895</v>
+        <v>0.1133509186535721</v>
       </c>
     </row>
     <row r="31">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.1214258898025027</v>
+        <v>0.1579812195996347</v>
       </c>
     </row>
     <row r="32">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.1564589735607563</v>
+        <v>0.2225295456529744</v>
       </c>
     </row>
     <row r="33">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.1198005202791058</v>
+        <v>0.1738957980271216</v>
       </c>
     </row>
     <row r="34">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.1253200646891701</v>
+        <v>0.2539441463819709</v>
       </c>
     </row>
     <row r="35">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.1252897337552507</v>
+        <v>0.1929912518661896</v>
       </c>
     </row>
     <row r="36">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.09562675032338082</v>
+        <v>0.165405359663531</v>
       </c>
     </row>
     <row r="37">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.1329062737885959</v>
+        <v>0.2353433340135165</v>
       </c>
     </row>
     <row r="38">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.0850952188848467</v>
+        <v>0.1906973973297687</v>
       </c>
     </row>
     <row r="39">
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.09028608182467489</v>
+        <v>0.2149738935988811</v>
       </c>
     </row>
     <row r="40">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.001115162737417431</v>
+        <v>0.005206012867619276</v>
       </c>
     </row>
     <row r="41">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1.953991365517625e-35</v>
+        <v>5.040322510300809e-33</v>
       </c>
     </row>
     <row r="42">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3.5230259138701e-18</v>
+        <v>2.881059432383614e-20</v>
       </c>
     </row>
     <row r="43">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4.026825373150821e-09</v>
+        <v>9.192938627272448e-07</v>
       </c>
     </row>
     <row r="44">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1.779136599583741e-27</v>
+        <v>8.669010199122036e-53</v>
       </c>
     </row>
     <row r="45">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.8463022039867467</v>
+        <v>0.9645388028330022</v>
       </c>
     </row>
     <row r="46">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.7832187099082426</v>
+        <v>0.6322876399121994</v>
       </c>
     </row>
     <row r="47">
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.5131242472728103</v>
+        <v>0.4113855118694248</v>
       </c>
     </row>
     <row r="48">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.8031034017929031</v>
+        <v>0.9669684514885055</v>
       </c>
     </row>
     <row r="49">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.7080315416940797</v>
+        <v>0.6993044446589063</v>
       </c>
     </row>
     <row r="50">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.7339826799501119</v>
+        <v>0.7607992781442277</v>
       </c>
     </row>
     <row r="51">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.8463340441446068</v>
+        <v>0.7844244945315254</v>
       </c>
     </row>
     <row r="52">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.7317523900795568</v>
+        <v>0.531078556748204</v>
       </c>
     </row>
     <row r="53">
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.7996376954806477</v>
+        <v>0.7687906264273019</v>
       </c>
     </row>
     <row r="54">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.9379769665170959</v>
+        <v>0.9088851595551664</v>
       </c>
     </row>
     <row r="55">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.8979445468401543</v>
+        <v>0.9149070619196777</v>
       </c>
     </row>
     <row r="56">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.4346840894967606</v>
+        <v>0.3426666060866215</v>
       </c>
     </row>
     <row r="57">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.9499321706564698</v>
+        <v>0.9038562479833077</v>
       </c>
     </row>
     <row r="58">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.7888470391241886</v>
+        <v>0.8635179134628745</v>
       </c>
     </row>
     <row r="59">
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.5865741567732503</v>
+        <v>0.895576053185705</v>
       </c>
     </row>
     <row r="60">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.7715701980296891</v>
+        <v>0.693035700587866</v>
       </c>
     </row>
     <row r="61">
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.6036065227246754</v>
+        <v>0.4204763185495483</v>
       </c>
     </row>
     <row r="62">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1.03737044252852e-22</v>
+        <v>1.300700635717633e-20</v>
       </c>
     </row>
     <row r="63">
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.05429501005449679</v>
+        <v>0.09093521525652967</v>
       </c>
     </row>
     <row r="64">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.0001102856102940671</v>
+        <v>0.001162627515801274</v>
       </c>
     </row>
     <row r="65">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.754659468876018e-06</v>
+        <v>4.139161972636311e-11</v>
       </c>
     </row>
     <row r="66">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.9230262654776202</v>
+        <v>0.6683886250799669</v>
       </c>
     </row>
     <row r="67">
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.732574020541097</v>
+        <v>0.9047753617887724</v>
       </c>
     </row>
     <row r="68">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.8265933466858251</v>
+        <v>0.8327056364760048</v>
       </c>
     </row>
     <row r="69">
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.6929017116069575</v>
+        <v>0.5565824650942856</v>
       </c>
     </row>
     <row r="70">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.868627553435851</v>
+        <v>0.7676176443735369</v>
       </c>
     </row>
     <row r="71">
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.7934165332899639</v>
+        <v>0.992326740186214</v>
       </c>
     </row>
     <row r="72">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.1890957068599317</v>
+        <v>0.2427711145223551</v>
       </c>
     </row>
     <row r="73">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.2351741521970458</v>
+        <v>0.4060235651730132</v>
       </c>
     </row>
     <row r="74">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.2347036548785706</v>
+        <v>0.4447740396687111</v>
       </c>
     </row>
     <row r="75">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.3178792322172488</v>
+        <v>0.4793335286592828</v>
       </c>
     </row>
     <row r="76">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.2282613399870474</v>
+        <v>0.5187882833856901</v>
       </c>
     </row>
     <row r="77">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.2814968742070766</v>
+        <v>0.4810630054064726</v>
       </c>
     </row>
     <row r="78">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.2204962807053855</v>
+        <v>0.330429889411633</v>
       </c>
     </row>
     <row r="79">
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.203478633896962</v>
+        <v>0.4316527563557564</v>
       </c>
     </row>
     <row r="80">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.2105233948020111</v>
+        <v>0.5058178246372492</v>
       </c>
     </row>
     <row r="81">
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.2054900300326506</v>
+        <v>0.4681871046562327</v>
       </c>
     </row>
     <row r="82">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.008833598932889821</v>
+        <v>0.04729300264716872</v>
       </c>
     </row>
     <row r="83">
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1.186292824820606e-18</v>
+        <v>8.887395411605914e-19</v>
       </c>
     </row>
     <row r="84">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>9.352379210689119e-18</v>
+        <v>7.985720451708375e-18</v>
       </c>
     </row>
     <row r="85">
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>7.317570829442834e-06</v>
+        <v>0.0001000769650044792</v>
       </c>
     </row>
   </sheetData>
